--- a/artfynd/A 59219-2022.xlsx
+++ b/artfynd/A 59219-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY37"/>
+  <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4730,6 +4730,127 @@
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112182731</v>
+      </c>
+      <c r="B38" t="n">
+        <v>89965</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>760</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Lycksaberg, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>636505.8934863589</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7215899.030802801</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 59219-2022.xlsx
+++ b/artfynd/A 59219-2022.xlsx
@@ -4776,10 +4776,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>636505.8934863589</v>
+        <v>636506</v>
       </c>
       <c r="R38" t="n">
-        <v>7215899.030802801</v>
+        <v>7215899</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4809,19 +4809,9 @@
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-06-26</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">

--- a/artfynd/A 59219-2022.xlsx
+++ b/artfynd/A 59219-2022.xlsx
@@ -4735,7 +4735,7 @@
         <v>112182731</v>
       </c>
       <c r="B38" t="n">
-        <v>89965</v>
+        <v>90099</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>

--- a/artfynd/A 59219-2022.xlsx
+++ b/artfynd/A 59219-2022.xlsx
@@ -4735,7 +4735,7 @@
         <v>112182731</v>
       </c>
       <c r="B38" t="n">
-        <v>90099</v>
+        <v>90113</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
